--- a/admin/title/loai.xlsx
+++ b/admin/title/loai.xlsx
@@ -15,15 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Mã loại</t>
   </si>
   <si>
     <t>Tên loại</t>
-  </si>
-  <si>
-    <t>Đồ ăn nhanh</t>
   </si>
   <si>
     <t>Rau củ quả</t>
@@ -380,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +403,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -414,7 +411,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -422,7 +419,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -430,7 +427,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -438,18 +435,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
